--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cd200</t>
+  </si>
+  <si>
+    <t>Cd200r4</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cd200</t>
-  </si>
-  <si>
-    <t>Cd200r4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>70.0507755</v>
+        <v>51.1891975</v>
       </c>
       <c r="H2">
-        <v>140.101551</v>
+        <v>102.378395</v>
       </c>
       <c r="I2">
-        <v>0.485408695871283</v>
+        <v>0.6711336195956624</v>
       </c>
       <c r="J2">
-        <v>0.4148906539949664</v>
+        <v>0.6578051868283081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.17637</v>
+        <v>6.901191666666667</v>
       </c>
       <c r="N2">
-        <v>0.35274</v>
+        <v>20.703575</v>
       </c>
       <c r="O2">
-        <v>0.00752214997436319</v>
+        <v>0.2539043967777174</v>
       </c>
       <c r="P2">
-        <v>0.005027372198794217</v>
+        <v>0.2539043967777173</v>
       </c>
       <c r="Q2">
-        <v>12.354855274935</v>
+        <v>353.2664632103542</v>
       </c>
       <c r="R2">
-        <v>49.41942109974</v>
+        <v>2119.598779262125</v>
       </c>
       <c r="S2">
-        <v>0.003651317009203841</v>
+        <v>0.1704037768406827</v>
       </c>
       <c r="T2">
-        <v>0.002085809739433845</v>
+        <v>0.1670196291588952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>70.0507755</v>
+        <v>51.1891975</v>
       </c>
       <c r="H3">
-        <v>140.101551</v>
+        <v>102.378395</v>
       </c>
       <c r="I3">
-        <v>0.485408695871283</v>
+        <v>0.6711336195956624</v>
       </c>
       <c r="J3">
-        <v>0.4148906539949664</v>
+        <v>0.6578051868283081</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.24224</v>
+        <v>3.620065666666667</v>
       </c>
       <c r="N3">
-        <v>36.72672</v>
+        <v>10.860197</v>
       </c>
       <c r="O3">
-        <v>0.5221294171466123</v>
+        <v>0.1331872282044128</v>
       </c>
       <c r="P3">
-        <v>0.52344188660458</v>
+        <v>0.1331872282044128</v>
       </c>
       <c r="Q3">
-        <v>857.5784058571201</v>
+        <v>185.3082563739692</v>
       </c>
       <c r="R3">
-        <v>5145.47043514272</v>
+        <v>1111.849538243815</v>
       </c>
       <c r="S3">
-        <v>0.2534461594531702</v>
+        <v>0.08938642654874104</v>
       </c>
       <c r="T3">
-        <v>0.2171711466617333</v>
+        <v>0.08761124953214826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>70.0507755</v>
+        <v>51.1891975</v>
       </c>
       <c r="H4">
-        <v>140.101551</v>
+        <v>102.378395</v>
       </c>
       <c r="I4">
-        <v>0.485408695871283</v>
+        <v>0.6711336195956624</v>
       </c>
       <c r="J4">
-        <v>0.4148906539949664</v>
+        <v>0.6578051868283081</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.028144</v>
+        <v>16.659019</v>
       </c>
       <c r="N4">
-        <v>33.084432</v>
+        <v>49.97705699999999</v>
       </c>
       <c r="O4">
-        <v>0.4703484328790246</v>
+        <v>0.6129083750178698</v>
       </c>
       <c r="P4">
-        <v>0.4715307411966257</v>
+        <v>0.6129083750178698</v>
       </c>
       <c r="Q4">
-        <v>772.530039525672</v>
+        <v>852.7618137472523</v>
       </c>
       <c r="R4">
-        <v>4635.180237154032</v>
+        <v>5116.570882483515</v>
       </c>
       <c r="S4">
-        <v>0.228311219408909</v>
+        <v>0.4113434162062386</v>
       </c>
       <c r="T4">
-        <v>0.1956336975937993</v>
+        <v>0.4031743081372646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7450486666666668</v>
+        <v>0.7450486666666666</v>
       </c>
       <c r="H5">
         <v>2.235146</v>
       </c>
       <c r="I5">
-        <v>0.00516272802215166</v>
+        <v>0.009768217375060863</v>
       </c>
       <c r="J5">
-        <v>0.006619064379338908</v>
+        <v>0.01436133700004327</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.17637</v>
+        <v>6.901191666666667</v>
       </c>
       <c r="N5">
-        <v>0.35274</v>
+        <v>20.703575</v>
       </c>
       <c r="O5">
-        <v>0.00752214997436319</v>
+        <v>0.2539043967777174</v>
       </c>
       <c r="P5">
-        <v>0.005027372198794217</v>
+        <v>0.2539043967777173</v>
       </c>
       <c r="Q5">
-        <v>0.13140423334</v>
+        <v>5.141723649661111</v>
       </c>
       <c r="R5">
-        <v>0.7884254000400001</v>
+        <v>46.27551284695</v>
       </c>
       <c r="S5">
-        <v>3.883481445947223E-05</v>
+        <v>0.002480193340208446</v>
       </c>
       <c r="T5">
-        <v>3.327650024271752E-05</v>
+        <v>0.0036464066079175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7450486666666668</v>
+        <v>0.7450486666666666</v>
       </c>
       <c r="H6">
         <v>2.235146</v>
       </c>
       <c r="I6">
-        <v>0.00516272802215166</v>
+        <v>0.009768217375060863</v>
       </c>
       <c r="J6">
-        <v>0.006619064379338908</v>
+        <v>0.01436133700004327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.24224</v>
+        <v>3.620065666666667</v>
       </c>
       <c r="N6">
-        <v>36.72672</v>
+        <v>10.860197</v>
       </c>
       <c r="O6">
-        <v>0.5221294171466123</v>
+        <v>0.1331872282044128</v>
       </c>
       <c r="P6">
-        <v>0.52344188660458</v>
+        <v>0.1331872282044128</v>
       </c>
       <c r="Q6">
-        <v>9.121064589013336</v>
+        <v>2.697125098195778</v>
       </c>
       <c r="R6">
-        <v>82.08958130112001</v>
+        <v>24.274125883762</v>
       </c>
       <c r="S6">
-        <v>0.002695612173092529</v>
+        <v>0.001301001796682541</v>
       </c>
       <c r="T6">
-        <v>0.003464695546278331</v>
+        <v>0.00191274666834524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7450486666666668</v>
+        <v>0.7450486666666666</v>
       </c>
       <c r="H7">
         <v>2.235146</v>
       </c>
       <c r="I7">
-        <v>0.00516272802215166</v>
+        <v>0.009768217375060863</v>
       </c>
       <c r="J7">
-        <v>0.006619064379338908</v>
+        <v>0.01436133700004327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.028144</v>
+        <v>16.659019</v>
       </c>
       <c r="N7">
-        <v>33.084432</v>
+        <v>49.97705699999999</v>
       </c>
       <c r="O7">
-        <v>0.4703484328790246</v>
+        <v>0.6129083750178698</v>
       </c>
       <c r="P7">
-        <v>0.4715307411966257</v>
+        <v>0.6129083750178698</v>
       </c>
       <c r="Q7">
-        <v>8.216503983008002</v>
+        <v>12.41177989392466</v>
       </c>
       <c r="R7">
-        <v>73.94853584707201</v>
+        <v>111.706019045322</v>
       </c>
       <c r="S7">
-        <v>0.002428281034599659</v>
+        <v>0.005987022238169875</v>
       </c>
       <c r="T7">
-        <v>0.003121092332817858</v>
+        <v>0.008802183723780532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.8712870000000001</v>
+        <v>0.1585153333333333</v>
       </c>
       <c r="H8">
-        <v>2.613861</v>
+        <v>0.475546</v>
       </c>
       <c r="I8">
-        <v>0.006037481860562737</v>
+        <v>0.002078269920551362</v>
       </c>
       <c r="J8">
-        <v>0.007740574547543282</v>
+        <v>0.003055494524752558</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.17637</v>
+        <v>6.901191666666667</v>
       </c>
       <c r="N8">
-        <v>0.35274</v>
+        <v>20.703575</v>
       </c>
       <c r="O8">
-        <v>0.00752214997436319</v>
+        <v>0.2539043967777174</v>
       </c>
       <c r="P8">
-        <v>0.005027372198794217</v>
+        <v>0.2539043967777173</v>
       </c>
       <c r="Q8">
-        <v>0.15366888819</v>
+        <v>1.093944697438889</v>
       </c>
       <c r="R8">
-        <v>0.9220133291400001</v>
+        <v>9.84550227695</v>
       </c>
       <c r="S8">
-        <v>4.541484402265021E-05</v>
+        <v>0.0005276818705188681</v>
       </c>
       <c r="T8">
-        <v>3.891474928301322E-05</v>
+        <v>0.0007758034941649162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.8712870000000001</v>
+        <v>0.1585153333333333</v>
       </c>
       <c r="H9">
-        <v>2.613861</v>
+        <v>0.475546</v>
       </c>
       <c r="I9">
-        <v>0.006037481860562737</v>
+        <v>0.002078269920551362</v>
       </c>
       <c r="J9">
-        <v>0.007740574547543282</v>
+        <v>0.003055494524752558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.24224</v>
+        <v>3.620065666666667</v>
       </c>
       <c r="N9">
-        <v>36.72672</v>
+        <v>10.860197</v>
       </c>
       <c r="O9">
-        <v>0.5221294171466123</v>
+        <v>0.1331872282044128</v>
       </c>
       <c r="P9">
-        <v>0.52344188660458</v>
+        <v>0.1331872282044128</v>
       </c>
       <c r="Q9">
-        <v>10.66650456288</v>
+        <v>0.5738359158402222</v>
       </c>
       <c r="R9">
-        <v>95.99854106592002</v>
+        <v>5.164523242562</v>
       </c>
       <c r="S9">
-        <v>0.003152346884888866</v>
+        <v>0.0002767990101788411</v>
       </c>
       <c r="T9">
-        <v>0.004051740944569449</v>
+        <v>0.0004069528465455527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8712870000000001</v>
+        <v>0.1585153333333333</v>
       </c>
       <c r="H10">
-        <v>2.613861</v>
+        <v>0.475546</v>
       </c>
       <c r="I10">
-        <v>0.006037481860562737</v>
+        <v>0.002078269920551362</v>
       </c>
       <c r="J10">
-        <v>0.007740574547543282</v>
+        <v>0.003055494524752558</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.028144</v>
+        <v>16.659019</v>
       </c>
       <c r="N10">
-        <v>33.084432</v>
+        <v>49.97705699999999</v>
       </c>
       <c r="O10">
-        <v>0.4703484328790246</v>
+        <v>0.6129083750178698</v>
       </c>
       <c r="P10">
-        <v>0.4715307411966257</v>
+        <v>0.6129083750178698</v>
       </c>
       <c r="Q10">
-        <v>9.608678501328001</v>
+        <v>2.640709949791333</v>
       </c>
       <c r="R10">
-        <v>86.47810651195201</v>
+        <v>23.766389548122</v>
       </c>
       <c r="S10">
-        <v>0.002839720131651221</v>
+        <v>0.001273789039853652</v>
       </c>
       <c r="T10">
-        <v>0.00364991885369082</v>
+        <v>0.001872738184042088</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.205092</v>
+        <v>21.992666</v>
       </c>
       <c r="H11">
-        <v>50.410184</v>
+        <v>43.985332</v>
       </c>
       <c r="I11">
-        <v>0.17465575148466</v>
+        <v>0.2883424288325376</v>
       </c>
       <c r="J11">
-        <v>0.1492825315528919</v>
+        <v>0.2826160688880223</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.17637</v>
+        <v>6.901191666666667</v>
       </c>
       <c r="N11">
-        <v>0.35274</v>
+        <v>20.703575</v>
       </c>
       <c r="O11">
-        <v>0.00752214997436319</v>
+        <v>0.2539043967777174</v>
       </c>
       <c r="P11">
-        <v>0.005027372198794217</v>
+        <v>0.2539043967777173</v>
       </c>
       <c r="Q11">
-        <v>4.44542207604</v>
+        <v>151.7756033269833</v>
       </c>
       <c r="R11">
-        <v>17.78168830416</v>
+        <v>910.6536199619001</v>
       </c>
       <c r="S11">
-        <v>0.001313786756552719</v>
+        <v>0.07321141045814736</v>
       </c>
       <c r="T11">
-        <v>0.0007504988488946291</v>
+        <v>0.07175746249070311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.205092</v>
+        <v>21.992666</v>
       </c>
       <c r="H12">
-        <v>50.410184</v>
+        <v>43.985332</v>
       </c>
       <c r="I12">
-        <v>0.17465575148466</v>
+        <v>0.2883424288325376</v>
       </c>
       <c r="J12">
-        <v>0.1492825315528919</v>
+        <v>0.2826160688880223</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.24224</v>
+        <v>3.620065666666667</v>
       </c>
       <c r="N12">
-        <v>36.72672</v>
+        <v>10.860197</v>
       </c>
       <c r="O12">
-        <v>0.5221294171466123</v>
+        <v>0.1331872282044128</v>
       </c>
       <c r="P12">
-        <v>0.52344188660458</v>
+        <v>0.1331872282044128</v>
       </c>
       <c r="Q12">
-        <v>308.5667854860801</v>
+        <v>79.61489510506733</v>
       </c>
       <c r="R12">
-        <v>1851.40071291648</v>
+        <v>477.689370630404</v>
       </c>
       <c r="S12">
-        <v>0.09119290572398908</v>
+        <v>0.03840352886993383</v>
       </c>
       <c r="T12">
-        <v>0.07814072995315348</v>
+        <v>0.03764085086122308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.205092</v>
+        <v>21.992666</v>
       </c>
       <c r="H13">
-        <v>50.410184</v>
+        <v>43.985332</v>
       </c>
       <c r="I13">
-        <v>0.17465575148466</v>
+        <v>0.2883424288325376</v>
       </c>
       <c r="J13">
-        <v>0.1492825315528919</v>
+        <v>0.2826160688880223</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.028144</v>
+        <v>16.659019</v>
       </c>
       <c r="N13">
-        <v>33.084432</v>
+        <v>49.97705699999999</v>
       </c>
       <c r="O13">
-        <v>0.4703484328790246</v>
+        <v>0.6129083750178698</v>
       </c>
       <c r="P13">
-        <v>0.4715307411966257</v>
+        <v>0.6129083750178698</v>
       </c>
       <c r="Q13">
-        <v>277.965384109248</v>
+        <v>366.3762407546539</v>
       </c>
       <c r="R13">
-        <v>1667.792304655488</v>
+        <v>2198.257444527924</v>
       </c>
       <c r="S13">
-        <v>0.08214905900411819</v>
+        <v>0.1767274895044564</v>
       </c>
       <c r="T13">
-        <v>0.07039130275084378</v>
+        <v>0.1732177555360961</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.38387733333334</v>
+        <v>2.187308666666667</v>
       </c>
       <c r="H14">
-        <v>139.151632</v>
+        <v>6.561926000000001</v>
       </c>
       <c r="I14">
-        <v>0.321411679529899</v>
+        <v>0.02867746427618762</v>
       </c>
       <c r="J14">
-        <v>0.4120776050862342</v>
+        <v>0.04216191275887391</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.17637</v>
+        <v>6.901191666666667</v>
       </c>
       <c r="N14">
-        <v>0.35274</v>
+        <v>20.703575</v>
       </c>
       <c r="O14">
-        <v>0.00752214997436319</v>
+        <v>0.2539043967777174</v>
       </c>
       <c r="P14">
-        <v>0.005027372198794217</v>
+        <v>0.2539043967777173</v>
       </c>
       <c r="Q14">
-        <v>8.180724445280001</v>
+        <v>15.09503634282778</v>
       </c>
       <c r="R14">
-        <v>49.08434667168</v>
+        <v>135.85532708545</v>
       </c>
       <c r="S14">
-        <v>0.002417706856935859</v>
+        <v>0.007281334268159957</v>
       </c>
       <c r="T14">
-        <v>0.002071667495556236</v>
+        <v>0.01070509502603662</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,14 +1334,14 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.38387733333334</v>
+        <v>2.187308666666667</v>
       </c>
       <c r="H15">
-        <v>139.151632</v>
+        <v>6.561926000000001</v>
       </c>
       <c r="I15">
-        <v>0.321411679529899</v>
+        <v>0.02867746427618762</v>
       </c>
       <c r="J15">
-        <v>0.4120776050862342</v>
+        <v>0.04216191275887391</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.24224</v>
+        <v>3.620065666666667</v>
       </c>
       <c r="N15">
-        <v>36.72672</v>
+        <v>10.860197</v>
       </c>
       <c r="O15">
-        <v>0.5221294171466123</v>
+        <v>0.1331872282044128</v>
       </c>
       <c r="P15">
-        <v>0.52344188660458</v>
+        <v>0.1331872282044128</v>
       </c>
       <c r="Q15">
-        <v>567.8425584452267</v>
+        <v>7.918201006602446</v>
       </c>
       <c r="R15">
-        <v>5110.583026007041</v>
+        <v>71.263809059422</v>
       </c>
       <c r="S15">
-        <v>0.1678184928970599</v>
+        <v>0.003819471978876496</v>
       </c>
       <c r="T15">
-        <v>0.2156986790338355</v>
+        <v>0.005615428296150683</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.38387733333334</v>
+        <v>2.187308666666667</v>
       </c>
       <c r="H16">
-        <v>139.151632</v>
+        <v>6.561926000000001</v>
       </c>
       <c r="I16">
-        <v>0.321411679529899</v>
+        <v>0.02867746427618762</v>
       </c>
       <c r="J16">
-        <v>0.4120776050862342</v>
+        <v>0.04216191275887391</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,214 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.028144</v>
+        <v>16.659019</v>
       </c>
       <c r="N16">
-        <v>33.084432</v>
+        <v>49.97705699999999</v>
       </c>
       <c r="O16">
-        <v>0.4703484328790246</v>
+        <v>0.6129083750178698</v>
       </c>
       <c r="P16">
-        <v>0.4715307411966257</v>
+        <v>0.6129083750178698</v>
       </c>
       <c r="Q16">
-        <v>511.528078510336</v>
+        <v>36.43841663686467</v>
       </c>
       <c r="R16">
-        <v>4603.752706593024</v>
+        <v>327.945749731782</v>
       </c>
       <c r="S16">
-        <v>0.1511754797759032</v>
+        <v>0.01757665802915117</v>
       </c>
       <c r="T16">
-        <v>0.1943072585568424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.056899666666667</v>
-      </c>
-      <c r="H17">
-        <v>3.170699</v>
-      </c>
-      <c r="I17">
-        <v>0.007323663231443602</v>
-      </c>
-      <c r="J17">
-        <v>0.009389570439025233</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.17637</v>
-      </c>
-      <c r="N17">
-        <v>0.35274</v>
-      </c>
-      <c r="O17">
-        <v>0.00752214997436319</v>
-      </c>
-      <c r="P17">
-        <v>0.005027372198794217</v>
-      </c>
-      <c r="Q17">
-        <v>0.18640539421</v>
-      </c>
-      <c r="R17">
-        <v>1.11843236526</v>
-      </c>
-      <c r="S17">
-        <v>5.508969318864812E-05</v>
-      </c>
-      <c r="T17">
-        <v>4.720486538377547E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.056899666666667</v>
-      </c>
-      <c r="H18">
-        <v>3.170699</v>
-      </c>
-      <c r="I18">
-        <v>0.007323663231443602</v>
-      </c>
-      <c r="J18">
-        <v>0.009389570439025233</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>12.24224</v>
-      </c>
-      <c r="N18">
-        <v>36.72672</v>
-      </c>
-      <c r="O18">
-        <v>0.5221294171466123</v>
-      </c>
-      <c r="P18">
-        <v>0.52344188660458</v>
-      </c>
-      <c r="Q18">
-        <v>12.93881937525333</v>
-      </c>
-      <c r="R18">
-        <v>116.44937437728</v>
-      </c>
-      <c r="S18">
-        <v>0.003823900014411723</v>
-      </c>
-      <c r="T18">
-        <v>0.004914894465009962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.056899666666667</v>
-      </c>
-      <c r="H19">
-        <v>3.170699</v>
-      </c>
-      <c r="I19">
-        <v>0.007323663231443602</v>
-      </c>
-      <c r="J19">
-        <v>0.009389570439025233</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>11.028144</v>
-      </c>
-      <c r="N19">
-        <v>33.084432</v>
-      </c>
-      <c r="O19">
-        <v>0.4703484328790246</v>
-      </c>
-      <c r="P19">
-        <v>0.4715307411966257</v>
-      </c>
-      <c r="Q19">
-        <v>11.655641717552</v>
-      </c>
-      <c r="R19">
-        <v>104.900775457968</v>
-      </c>
-      <c r="S19">
-        <v>0.003444673523843231</v>
-      </c>
-      <c r="T19">
-        <v>0.004427471108631494</v>
+        <v>0.0258413894366866</v>
       </c>
     </row>
   </sheetData>
